--- a/results/neos_results.xlsx
+++ b/results/neos_results.xlsx
@@ -1,37 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -330,13 +385,3100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-1.dat</t>
+        </is>
+      </c>
+      <c r="B1" t="n">
+        <v>154942.0000000054</v>
+      </c>
+      <c r="C1" t="n">
+        <v>141617.1159554735</v>
+      </c>
+      <c r="D1" t="n">
+        <v>296559.1159554789</v>
+      </c>
+      <c r="E1" t="n">
+        <v>34.69431733333334</v>
+      </c>
+      <c r="F1" t="n">
+        <v>0.1119893333333333</v>
+      </c>
+      <c r="G1" t="n">
+        <v>92.726919</v>
+      </c>
+      <c r="H1" t="n">
+        <v>147758.99999892</v>
+      </c>
+      <c r="I1" t="n">
+        <v>302700.9999989254</v>
+      </c>
+      <c r="J1" t="n">
+        <v>4.348577</v>
+      </c>
+      <c r="K1" t="n">
+        <v>13.045731</v>
+      </c>
+      <c r="L1" t="n">
+        <v>13.027596</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-1b.dat</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>154942</v>
+      </c>
+      <c r="C2" t="n">
+        <v>89891.23972091982</v>
+      </c>
+      <c r="D2" t="n">
+        <v>244833.2397209198</v>
+      </c>
+      <c r="E2" t="n">
+        <v>37.71090333333333</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.05197533333333334</v>
+      </c>
+      <c r="G2" t="n">
+        <v>102.686258</v>
+      </c>
+      <c r="H2" t="n">
+        <v>102445.9966483365</v>
+      </c>
+      <c r="I2" t="n">
+        <v>257387.9966483365</v>
+      </c>
+      <c r="J2" t="n">
+        <v>6.511140999999999</v>
+      </c>
+      <c r="K2" t="n">
+        <v>19.533423</v>
+      </c>
+      <c r="L2" t="n">
+        <v>19.506861</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-2.dat</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>145956</v>
+      </c>
+      <c r="C3" t="n">
+        <v>117649.8237816729</v>
+      </c>
+      <c r="D3" t="n">
+        <v>263605.8237816729</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.516722333333333</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.047005</v>
+      </c>
+      <c r="G3" t="n">
+        <v>13.729813</v>
+      </c>
+      <c r="H3" t="n">
+        <v>102556.999999896</v>
+      </c>
+      <c r="I3" t="n">
+        <v>248512.999999896</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.541932</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.625796</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.603221</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-2b.dat</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>141051.0072422104</v>
+      </c>
+      <c r="C4" t="n">
+        <v>79846.83598467031</v>
+      </c>
+      <c r="D4" t="n">
+        <v>220897.8432268807</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8.864288333333333</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.04804266666666667</v>
+      </c>
+      <c r="G4" t="n">
+        <v>23.7401</v>
+      </c>
+      <c r="H4" t="n">
+        <v>81096.99999947177</v>
+      </c>
+      <c r="I4" t="n">
+        <v>222148.0072416821</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.744437</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.233311</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.214857</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-3.dat</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>136123</v>
+      </c>
+      <c r="C5" t="n">
+        <v>128552.0784533934</v>
+      </c>
+      <c r="D5" t="n">
+        <v>264675.0784533934</v>
+      </c>
+      <c r="E5" t="n">
+        <v>10.87099033333333</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.059012</v>
+      </c>
+      <c r="G5" t="n">
+        <v>19.679083</v>
+      </c>
+      <c r="H5" t="n">
+        <v>122776.9999607977</v>
+      </c>
+      <c r="I5" t="n">
+        <v>258899.9999607977</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7.941813666666667</v>
+      </c>
+      <c r="K5" t="n">
+        <v>23.825441</v>
+      </c>
+      <c r="L5" t="n">
+        <v>23.80614</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-3b.dat</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>136123</v>
+      </c>
+      <c r="C6" t="n">
+        <v>81171.82487671108</v>
+      </c>
+      <c r="D6" t="n">
+        <v>217294.8248767111</v>
+      </c>
+      <c r="E6" t="n">
+        <v>10.40843966666667</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.05615133333333333</v>
+      </c>
+      <c r="G6" t="n">
+        <v>18.437041</v>
+      </c>
+      <c r="H6" t="n">
+        <v>76425.00000000017</v>
+      </c>
+      <c r="I6" t="n">
+        <v>212548.0000000002</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.493691</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.481073</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.462146</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-1.dat</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>132890</v>
+      </c>
+      <c r="C7" t="n">
+        <v>158257.9344677532</v>
+      </c>
+      <c r="D7" t="n">
+        <v>291147.9344677532</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.771177666666667</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.04681566666666667</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6.930912</v>
+      </c>
+      <c r="H7" t="n">
+        <v>153757</v>
+      </c>
+      <c r="I7" t="n">
+        <v>286647</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.168326666666667</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.50498</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.485639</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-1b.dat</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>132889.9999999952</v>
+      </c>
+      <c r="C8" t="n">
+        <v>91493.01345875698</v>
+      </c>
+      <c r="D8" t="n">
+        <v>224383.0134587521</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3.311007666666667</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.04709</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8.555464000000001</v>
+      </c>
+      <c r="H8" t="n">
+        <v>95308.00022499231</v>
+      </c>
+      <c r="I8" t="n">
+        <v>228198.0002249875</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.763492666666667</v>
+      </c>
+      <c r="K8" t="n">
+        <v>8.290478</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8.272005</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-2.dat</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>102246</v>
+      </c>
+      <c r="C9" t="n">
+        <v>105196.9096539584</v>
+      </c>
+      <c r="D9" t="n">
+        <v>207442.9096539584</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.8250175</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0519225</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.940815</v>
+      </c>
+      <c r="H9" t="n">
+        <v>94299.00000000001</v>
+      </c>
+      <c r="I9" t="n">
+        <v>196545</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.3829</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.7658</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.738416</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-2b.dat</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>102245.9999999841</v>
+      </c>
+      <c r="C10" t="n">
+        <v>66361.35747883299</v>
+      </c>
+      <c r="D10" t="n">
+        <v>168607.3574788171</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.2307465</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.052663</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.725197</v>
+      </c>
+      <c r="H10" t="n">
+        <v>63557.00341204883</v>
+      </c>
+      <c r="I10" t="n">
+        <v>165803.0034120329</v>
+      </c>
+      <c r="J10" t="n">
+        <v>115.1243415</v>
+      </c>
+      <c r="K10" t="n">
+        <v>230.248683</v>
+      </c>
+      <c r="L10" t="n">
+        <v>230.220462</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-3.dat</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>88287</v>
+      </c>
+      <c r="C11" t="n">
+        <v>121435.0825676529</v>
+      </c>
+      <c r="D11" t="n">
+        <v>209722.0825676529</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.0255035</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0540365</v>
+      </c>
+      <c r="G11" t="n">
+        <v>11.097322</v>
+      </c>
+      <c r="H11" t="n">
+        <v>116567.9999971409</v>
+      </c>
+      <c r="I11" t="n">
+        <v>204854.9999971409</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.902243</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5.804486</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5.7776</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-3b.dat</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>88287.00000000262</v>
+      </c>
+      <c r="C12" t="n">
+        <v>71699.25467753105</v>
+      </c>
+      <c r="D12" t="n">
+        <v>159986.2546775337</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.686931</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.052355</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.455989</v>
+      </c>
+      <c r="H12" t="n">
+        <v>67389.00000126309</v>
+      </c>
+      <c r="I12" t="n">
+        <v>155676.0000012657</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.2301395</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.460279</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2.435204</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord20-5-1.dat</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>25549</v>
+      </c>
+      <c r="C13" t="n">
+        <v>42316.24599992947</v>
+      </c>
+      <c r="D13" t="n">
+        <v>67865.24599992947</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.120476</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.03985466666666667</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.931659</v>
+      </c>
+      <c r="H13" t="n">
+        <v>31644.00000002697</v>
+      </c>
+      <c r="I13" t="n">
+        <v>57193.00000002697</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.04233899999999999</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.127017</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.124313</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord20-5-1b.dat</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>15496.99999999996</v>
+      </c>
+      <c r="C14" t="n">
+        <v>29788.8388832785</v>
+      </c>
+      <c r="D14" t="n">
+        <v>45285.83888327845</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.796281</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.03993</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.217097</v>
+      </c>
+      <c r="H14" t="n">
+        <v>32256.00000008826</v>
+      </c>
+      <c r="I14" t="n">
+        <v>47753.00000008822</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0330295</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.06605900000000001</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.063472</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord20-5-2.dat</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>24196</v>
+      </c>
+      <c r="C15" t="n">
+        <v>40243.83992072947</v>
+      </c>
+      <c r="D15" t="n">
+        <v>64439.83992072947</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2.738092</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.03712433333333334</v>
+      </c>
+      <c r="G15" t="n">
+        <v>7.740687</v>
+      </c>
+      <c r="H15" t="n">
+        <v>25505.00000000412</v>
+      </c>
+      <c r="I15" t="n">
+        <v>49701.00000000412</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.02410733333333333</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.072322</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.06964100000000001</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord20-5-2b.dat</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>13911</v>
+      </c>
+      <c r="C16" t="n">
+        <v>28983.27788020028</v>
+      </c>
+      <c r="D16" t="n">
+        <v>42894.27788020027</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.4194185</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.03846</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.447824</v>
+      </c>
+      <c r="H16" t="n">
+        <v>29646.000000125</v>
+      </c>
+      <c r="I16" t="n">
+        <v>43557.000000125</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.029311</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.058622</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.05611099999999999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-1.dat</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>253840</v>
+      </c>
+      <c r="C17" t="n">
+        <v>237172.2519921298</v>
+      </c>
+      <c r="D17" t="n">
+        <v>491012.2519921298</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10.46263733333333</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.05626933333333334</v>
+      </c>
+      <c r="G17" t="n">
+        <v>26.653404</v>
+      </c>
+      <c r="H17" t="n">
+        <v>229030.9969649523</v>
+      </c>
+      <c r="I17" t="n">
+        <v>482870.9969649523</v>
+      </c>
+      <c r="J17" t="n">
+        <v>35.68699233333333</v>
+      </c>
+      <c r="K17" t="n">
+        <v>107.060977</v>
+      </c>
+      <c r="L17" t="n">
+        <v>106.99241</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-1b.dat</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>253840</v>
+      </c>
+      <c r="C18" t="n">
+        <v>138927.7439391108</v>
+      </c>
+      <c r="D18" t="n">
+        <v>392767.7439391108</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10.88907866666667</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.057694</v>
+      </c>
+      <c r="G18" t="n">
+        <v>27.995733</v>
+      </c>
+      <c r="H18" t="n">
+        <v>134628.0017536883</v>
+      </c>
+      <c r="I18" t="n">
+        <v>388468.0017536883</v>
+      </c>
+      <c r="J18" t="n">
+        <v>32.80361466666667</v>
+      </c>
+      <c r="K18" t="n">
+        <v>98.410844</v>
+      </c>
+      <c r="L18" t="n">
+        <v>98.228335</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-2.dat</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>280369.9999998565</v>
+      </c>
+      <c r="C19" t="n">
+        <v>195844.6514021275</v>
+      </c>
+      <c r="D19" t="n">
+        <v>476214.651401984</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10.303976</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.05550233333333333</v>
+      </c>
+      <c r="G19" t="n">
+        <v>28.789553</v>
+      </c>
+      <c r="H19" t="n">
+        <v>176158.0000001391</v>
+      </c>
+      <c r="I19" t="n">
+        <v>456527.9999999957</v>
+      </c>
+      <c r="J19" t="n">
+        <v>18.10805766666667</v>
+      </c>
+      <c r="K19" t="n">
+        <v>54.324173</v>
+      </c>
+      <c r="L19" t="n">
+        <v>54.262529</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-2b.dat</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>280370.0000000011</v>
+      </c>
+      <c r="C20" t="n">
+        <v>117258.3559339595</v>
+      </c>
+      <c r="D20" t="n">
+        <v>397628.3559339606</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10.122163</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.05640766666666667</v>
+      </c>
+      <c r="G20" t="n">
+        <v>28.294852</v>
+      </c>
+      <c r="H20" t="n">
+        <v>108114.998723915</v>
+      </c>
+      <c r="I20" t="n">
+        <v>388484.9987239161</v>
+      </c>
+      <c r="J20" t="n">
+        <v>161.3761506666667</v>
+      </c>
+      <c r="K20" t="n">
+        <v>484.128452</v>
+      </c>
+      <c r="L20" t="n">
+        <v>484.064308</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-3.dat</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>234659.9999977541</v>
+      </c>
+      <c r="C21" t="n">
+        <v>256928.7972702283</v>
+      </c>
+      <c r="D21" t="n">
+        <v>491588.7972679824</v>
+      </c>
+      <c r="E21" t="n">
+        <v>123.0436106666667</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.061554</v>
+      </c>
+      <c r="G21" t="n">
+        <v>365.736985</v>
+      </c>
+      <c r="H21" t="n">
+        <v>260795</v>
+      </c>
+      <c r="I21" t="n">
+        <v>495454.9999977541</v>
+      </c>
+      <c r="J21" t="n">
+        <v>135.5408916666667</v>
+      </c>
+      <c r="K21" t="n">
+        <v>406.622675</v>
+      </c>
+      <c r="L21" t="n">
+        <v>406.43277</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-3b.dat</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>234660</v>
+      </c>
+      <c r="C22" t="n">
+        <v>141578.9516903905</v>
+      </c>
+      <c r="D22" t="n">
+        <v>376238.9516903905</v>
+      </c>
+      <c r="E22" t="n">
+        <v>19.49574533333334</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.057932</v>
+      </c>
+      <c r="G22" t="n">
+        <v>55.15621</v>
+      </c>
+      <c r="H22" t="n">
+        <v>151463.001070769</v>
+      </c>
+      <c r="I22" t="n">
+        <v>386123.001070769</v>
+      </c>
+      <c r="J22" t="n">
+        <v>74.40475600000001</v>
+      </c>
+      <c r="K22" t="n">
+        <v>223.214268</v>
+      </c>
+      <c r="L22" t="n">
+        <v>223.142311</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-1.dat</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>15385</v>
+      </c>
+      <c r="C23" t="n">
+        <v>80972.53234696048</v>
+      </c>
+      <c r="D23" t="n">
+        <v>96357.53234696048</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3.5819455</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.06367399999999999</v>
+      </c>
+      <c r="G23" t="n">
+        <v>6.658495</v>
+      </c>
+      <c r="H23" t="n">
+        <v>80015.0000000405</v>
+      </c>
+      <c r="I23" t="n">
+        <v>95400.0000000405</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5252895</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.050579</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.042441</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-1b.dat</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15385</v>
+      </c>
+      <c r="C24" t="n">
+        <v>53439.71844345405</v>
+      </c>
+      <c r="D24" t="n">
+        <v>68824.71844345405</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.6320985</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.062014</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4.789711</v>
+      </c>
+      <c r="H24" t="n">
+        <v>57502.0000002422</v>
+      </c>
+      <c r="I24" t="n">
+        <v>72887.0000002422</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.6901225</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.380245</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.372169</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-2.dat</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>29319</v>
+      </c>
+      <c r="C25" t="n">
+        <v>76023.89879105485</v>
+      </c>
+      <c r="D25" t="n">
+        <v>105342.8987910548</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3.777641333333333</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.042272</v>
+      </c>
+      <c r="G25" t="n">
+        <v>10.578583</v>
+      </c>
+      <c r="H25" t="n">
+        <v>61808</v>
+      </c>
+      <c r="I25" t="n">
+        <v>91127</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.12499</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.37497</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.367993</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-2BIS.dat</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>19785</v>
+      </c>
+      <c r="C26" t="n">
+        <v>82034.88112450049</v>
+      </c>
+      <c r="D26" t="n">
+        <v>101819.8811245005</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4.612233</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.04156833333333333</v>
+      </c>
+      <c r="G26" t="n">
+        <v>13.24664</v>
+      </c>
+      <c r="H26" t="n">
+        <v>66511.00000004248</v>
+      </c>
+      <c r="I26" t="n">
+        <v>86296.00000004248</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.078476</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.235428</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.228621</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-2b.dat</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>29319</v>
+      </c>
+      <c r="C27" t="n">
+        <v>51694.04113804763</v>
+      </c>
+      <c r="D27" t="n">
+        <v>81013.04113804763</v>
+      </c>
+      <c r="E27" t="n">
+        <v>6.491040333333333</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.04181066666666666</v>
+      </c>
+      <c r="G27" t="n">
+        <v>18.690268</v>
+      </c>
+      <c r="H27" t="n">
+        <v>50835.00000003765</v>
+      </c>
+      <c r="I27" t="n">
+        <v>80154.00000003765</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.130121</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.390363</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.383353</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-2bBIS.dat</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>19242</v>
+      </c>
+      <c r="C28" t="n">
+        <v>51451.02044248403</v>
+      </c>
+      <c r="D28" t="n">
+        <v>70693.02044248403</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.188912333333333</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.04214133333333334</v>
+      </c>
+      <c r="G28" t="n">
+        <v>5.834077</v>
+      </c>
+      <c r="H28" t="n">
+        <v>46547.00000032039</v>
+      </c>
+      <c r="I28" t="n">
+        <v>65789.00000032039</v>
+      </c>
+      <c r="J28" t="n">
+        <v>25.500075</v>
+      </c>
+      <c r="K28" t="n">
+        <v>76.500225</v>
+      </c>
+      <c r="L28" t="n">
+        <v>76.478728</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-3.dat</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>18961</v>
+      </c>
+      <c r="C29" t="n">
+        <v>75730.43048470319</v>
+      </c>
+      <c r="D29" t="n">
+        <v>94691.43048470319</v>
+      </c>
+      <c r="E29" t="n">
+        <v>9.833266500000001</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.06762749999999999</v>
+      </c>
+      <c r="G29" t="n">
+        <v>19.080263</v>
+      </c>
+      <c r="H29" t="n">
+        <v>73443</v>
+      </c>
+      <c r="I29" t="n">
+        <v>92404</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.373221</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.746442</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.7349829999999999</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-3b.dat</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>15787</v>
+      </c>
+      <c r="C30" t="n">
+        <v>49209.0513935398</v>
+      </c>
+      <c r="D30" t="n">
+        <v>64996.0513935398</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.999847</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0661775</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.45801</v>
+      </c>
+      <c r="H30" t="n">
+        <v>54796.00000060031</v>
+      </c>
+      <c r="I30" t="n">
+        <v>70583.00000060031</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.3420455</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.684091</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.673699</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-1.dat</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>154942.0000000054</v>
+      </c>
+      <c r="C31" t="n">
+        <v>141617.1159554735</v>
+      </c>
+      <c r="D31" t="n">
+        <v>296559.1159554789</v>
+      </c>
+      <c r="E31" t="n">
+        <v>37.08034266666667</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.06803633333333334</v>
+      </c>
+      <c r="G31" t="n">
+        <v>99.718608</v>
+      </c>
+      <c r="H31" t="n">
+        <v>147759.0000002972</v>
+      </c>
+      <c r="I31" t="n">
+        <v>302701.0000003026</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.934849666666667</v>
+      </c>
+      <c r="K31" t="n">
+        <v>11.804549</v>
+      </c>
+      <c r="L31" t="n">
+        <v>11.785864</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-1b.dat</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>154942</v>
+      </c>
+      <c r="C32" t="n">
+        <v>89891.23972091982</v>
+      </c>
+      <c r="D32" t="n">
+        <v>244833.2397209198</v>
+      </c>
+      <c r="E32" t="n">
+        <v>38.28826833333333</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.05108066666666666</v>
+      </c>
+      <c r="G32" t="n">
+        <v>104.174444</v>
+      </c>
+      <c r="H32" t="n">
+        <v>102445.9966483365</v>
+      </c>
+      <c r="I32" t="n">
+        <v>257387.9966483365</v>
+      </c>
+      <c r="J32" t="n">
+        <v>6.611594666666666</v>
+      </c>
+      <c r="K32" t="n">
+        <v>19.834784</v>
+      </c>
+      <c r="L32" t="n">
+        <v>19.808246</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-2.dat</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>145956</v>
+      </c>
+      <c r="C33" t="n">
+        <v>117649.8237816729</v>
+      </c>
+      <c r="D33" t="n">
+        <v>263605.8237816729</v>
+      </c>
+      <c r="E33" t="n">
+        <v>5.430774666666667</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.04525466666666667</v>
+      </c>
+      <c r="G33" t="n">
+        <v>13.582284</v>
+      </c>
+      <c r="H33" t="n">
+        <v>102556.999999896</v>
+      </c>
+      <c r="I33" t="n">
+        <v>248512.999999896</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.532</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4.596</v>
+      </c>
+      <c r="L33" t="n">
+        <v>4.576632</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-2b.dat</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>141051.0072422104</v>
+      </c>
+      <c r="C34" t="n">
+        <v>79846.83598467031</v>
+      </c>
+      <c r="D34" t="n">
+        <v>220897.8432268807</v>
+      </c>
+      <c r="E34" t="n">
+        <v>8.861212666666667</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.04717966666666667</v>
+      </c>
+      <c r="G34" t="n">
+        <v>23.764462</v>
+      </c>
+      <c r="H34" t="n">
+        <v>81096.99999947177</v>
+      </c>
+      <c r="I34" t="n">
+        <v>222148.0072416821</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.7465806666666667</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.239742</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2.220111</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-3.dat</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>136123</v>
+      </c>
+      <c r="C35" t="n">
+        <v>128552.0784533934</v>
+      </c>
+      <c r="D35" t="n">
+        <v>264675.0784533934</v>
+      </c>
+      <c r="E35" t="n">
+        <v>10.940621</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.05813733333333334</v>
+      </c>
+      <c r="G35" t="n">
+        <v>19.957396</v>
+      </c>
+      <c r="H35" t="n">
+        <v>122776.9999607977</v>
+      </c>
+      <c r="I35" t="n">
+        <v>258899.9999607977</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.918765333333333</v>
+      </c>
+      <c r="K35" t="n">
+        <v>23.756296</v>
+      </c>
+      <c r="L35" t="n">
+        <v>23.737339</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-3b.dat</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>136123</v>
+      </c>
+      <c r="C36" t="n">
+        <v>81171.82487671108</v>
+      </c>
+      <c r="D36" t="n">
+        <v>217294.8248767111</v>
+      </c>
+      <c r="E36" t="n">
+        <v>10.41747533333333</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.05819333333333334</v>
+      </c>
+      <c r="G36" t="n">
+        <v>18.490852</v>
+      </c>
+      <c r="H36" t="n">
+        <v>76425.00000000017</v>
+      </c>
+      <c r="I36" t="n">
+        <v>212548.0000000002</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.488079666666667</v>
+      </c>
+      <c r="K36" t="n">
+        <v>4.464239</v>
+      </c>
+      <c r="L36" t="n">
+        <v>4.441418</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-1.dat</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>132890</v>
+      </c>
+      <c r="C37" t="n">
+        <v>158257.9344677532</v>
+      </c>
+      <c r="D37" t="n">
+        <v>291147.9344677532</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2.690553</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.04685</v>
+      </c>
+      <c r="G37" t="n">
+        <v>6.680677</v>
+      </c>
+      <c r="H37" t="n">
+        <v>153757</v>
+      </c>
+      <c r="I37" t="n">
+        <v>286647</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.165357666666667</v>
+      </c>
+      <c r="K37" t="n">
+        <v>3.496073</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.477237</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-1b.dat</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>132889.9999999952</v>
+      </c>
+      <c r="C38" t="n">
+        <v>91493.01345875698</v>
+      </c>
+      <c r="D38" t="n">
+        <v>224383.0134587521</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3.376163666666667</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.046631</v>
+      </c>
+      <c r="G38" t="n">
+        <v>8.743395</v>
+      </c>
+      <c r="H38" t="n">
+        <v>95308.00022499231</v>
+      </c>
+      <c r="I38" t="n">
+        <v>228198.0002249875</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2.807326</v>
+      </c>
+      <c r="K38" t="n">
+        <v>8.421977999999999</v>
+      </c>
+      <c r="L38" t="n">
+        <v>8.400473999999999</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-2.dat</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>102246</v>
+      </c>
+      <c r="C39" t="n">
+        <v>105196.9096539584</v>
+      </c>
+      <c r="D39" t="n">
+        <v>207442.9096539584</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2.874688</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0543475</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4.937693</v>
+      </c>
+      <c r="H39" t="n">
+        <v>94299.00000000001</v>
+      </c>
+      <c r="I39" t="n">
+        <v>196545</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.3923365</v>
+      </c>
+      <c r="K39" t="n">
+        <v>4.784673</v>
+      </c>
+      <c r="L39" t="n">
+        <v>4.757909</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-2b.dat</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>102245.9999999841</v>
+      </c>
+      <c r="C40" t="n">
+        <v>66361.35747883299</v>
+      </c>
+      <c r="D40" t="n">
+        <v>168607.3574788171</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3.2436435</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.052079</v>
+      </c>
+      <c r="G40" t="n">
+        <v>5.758053</v>
+      </c>
+      <c r="H40" t="n">
+        <v>63557.00341204883</v>
+      </c>
+      <c r="I40" t="n">
+        <v>165803.0034120329</v>
+      </c>
+      <c r="J40" t="n">
+        <v>114.3323985</v>
+      </c>
+      <c r="K40" t="n">
+        <v>228.664797</v>
+      </c>
+      <c r="L40" t="n">
+        <v>228.639152</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-3.dat</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>88287</v>
+      </c>
+      <c r="C41" t="n">
+        <v>121435.0825676529</v>
+      </c>
+      <c r="D41" t="n">
+        <v>209722.0825676529</v>
+      </c>
+      <c r="E41" t="n">
+        <v>5.9879</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0528015</v>
+      </c>
+      <c r="G41" t="n">
+        <v>11.026782</v>
+      </c>
+      <c r="H41" t="n">
+        <v>116567.9999971409</v>
+      </c>
+      <c r="I41" t="n">
+        <v>204854.9999971409</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2.816482</v>
+      </c>
+      <c r="K41" t="n">
+        <v>5.632964</v>
+      </c>
+      <c r="L41" t="n">
+        <v>5.608493</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-3b.dat</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>88287.00000000262</v>
+      </c>
+      <c r="C42" t="n">
+        <v>71699.25467753105</v>
+      </c>
+      <c r="D42" t="n">
+        <v>159986.2546775337</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.6515185</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0518365</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2.406322</v>
+      </c>
+      <c r="H42" t="n">
+        <v>67389.00000126309</v>
+      </c>
+      <c r="I42" t="n">
+        <v>155676.0000012657</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.177307</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2.354614</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2.328319</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord20-5-1.dat</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>25549</v>
+      </c>
+      <c r="C43" t="n">
+        <v>42316.24599992947</v>
+      </c>
+      <c r="D43" t="n">
+        <v>67865.24599992947</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.104206</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.036824</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.897777</v>
+      </c>
+      <c r="H43" t="n">
+        <v>31644.00000002697</v>
+      </c>
+      <c r="I43" t="n">
+        <v>57193.00000002697</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.038902</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.116706</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.114146</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord20-5-1b.dat</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>15496.99999999996</v>
+      </c>
+      <c r="C44" t="n">
+        <v>29788.8388832785</v>
+      </c>
+      <c r="D44" t="n">
+        <v>45285.83888327845</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.699664</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.037783</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3.032552</v>
+      </c>
+      <c r="H44" t="n">
+        <v>32256.00000008826</v>
+      </c>
+      <c r="I44" t="n">
+        <v>47753.00000008822</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.030127</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.060254</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.05792799999999999</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord20-5-2.dat</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>24196</v>
+      </c>
+      <c r="C45" t="n">
+        <v>40243.83992072947</v>
+      </c>
+      <c r="D45" t="n">
+        <v>64439.83992072947</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2.644209</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.03650533333333333</v>
+      </c>
+      <c r="G45" t="n">
+        <v>7.461844</v>
+      </c>
+      <c r="H45" t="n">
+        <v>25505.00000000412</v>
+      </c>
+      <c r="I45" t="n">
+        <v>49701.00000000412</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.01773533333333334</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.053206</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.050814</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord20-5-2b.dat</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>13911</v>
+      </c>
+      <c r="C46" t="n">
+        <v>28983.27788020028</v>
+      </c>
+      <c r="D46" t="n">
+        <v>42894.27788020027</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.408824</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.037726</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.435424</v>
+      </c>
+      <c r="H46" t="n">
+        <v>29646.000000125</v>
+      </c>
+      <c r="I46" t="n">
+        <v>43557.000000125</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.029801</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.059602</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.05729</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-1.dat</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>253840</v>
+      </c>
+      <c r="C47" t="n">
+        <v>237172.2519921298</v>
+      </c>
+      <c r="D47" t="n">
+        <v>491012.2519921298</v>
+      </c>
+      <c r="E47" t="n">
+        <v>10.15368166666667</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.05513299999999999</v>
+      </c>
+      <c r="G47" t="n">
+        <v>25.882213</v>
+      </c>
+      <c r="H47" t="n">
+        <v>229030.9969649523</v>
+      </c>
+      <c r="I47" t="n">
+        <v>482870.9969649523</v>
+      </c>
+      <c r="J47" t="n">
+        <v>34.20683666666667</v>
+      </c>
+      <c r="K47" t="n">
+        <v>102.62051</v>
+      </c>
+      <c r="L47" t="n">
+        <v>102.552556</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-1b.dat</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>253840</v>
+      </c>
+      <c r="C48" t="n">
+        <v>138927.7439391108</v>
+      </c>
+      <c r="D48" t="n">
+        <v>392767.7439391108</v>
+      </c>
+      <c r="E48" t="n">
+        <v>10.53537966666667</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.06050233333333333</v>
+      </c>
+      <c r="G48" t="n">
+        <v>26.989684</v>
+      </c>
+      <c r="H48" t="n">
+        <v>134628.0017536883</v>
+      </c>
+      <c r="I48" t="n">
+        <v>388468.0017536883</v>
+      </c>
+      <c r="J48" t="n">
+        <v>28.33125366666667</v>
+      </c>
+      <c r="K48" t="n">
+        <v>84.99376100000001</v>
+      </c>
+      <c r="L48" t="n">
+        <v>84.81427100000001</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-2.dat</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>280369.9999998565</v>
+      </c>
+      <c r="C49" t="n">
+        <v>195844.6514021275</v>
+      </c>
+      <c r="D49" t="n">
+        <v>476214.651401984</v>
+      </c>
+      <c r="E49" t="n">
+        <v>11.09302166666667</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.05754266666666667</v>
+      </c>
+      <c r="G49" t="n">
+        <v>31.064111</v>
+      </c>
+      <c r="H49" t="n">
+        <v>176158.0000001391</v>
+      </c>
+      <c r="I49" t="n">
+        <v>456527.9999999957</v>
+      </c>
+      <c r="J49" t="n">
+        <v>19.71297533333333</v>
+      </c>
+      <c r="K49" t="n">
+        <v>59.138926</v>
+      </c>
+      <c r="L49" t="n">
+        <v>59.061699</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-2b.dat</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>280370.0000000011</v>
+      </c>
+      <c r="C50" t="n">
+        <v>117258.3559339595</v>
+      </c>
+      <c r="D50" t="n">
+        <v>397628.3559339606</v>
+      </c>
+      <c r="E50" t="n">
+        <v>11.14115266666666</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.05614366666666667</v>
+      </c>
+      <c r="G50" t="n">
+        <v>31.266762</v>
+      </c>
+      <c r="H50" t="n">
+        <v>108114.9987182027</v>
+      </c>
+      <c r="I50" t="n">
+        <v>388484.9987182037</v>
+      </c>
+      <c r="J50" t="n">
+        <v>166.3029093333333</v>
+      </c>
+      <c r="K50" t="n">
+        <v>498.908728</v>
+      </c>
+      <c r="L50" t="n">
+        <v>498.837215</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-3.dat</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>234659.9999977541</v>
+      </c>
+      <c r="C51" t="n">
+        <v>256928.7972702283</v>
+      </c>
+      <c r="D51" t="n">
+        <v>491588.7972679824</v>
+      </c>
+      <c r="E51" t="n">
+        <v>123.648647</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.061567</v>
+      </c>
+      <c r="G51" t="n">
+        <v>365.746925</v>
+      </c>
+      <c r="H51" t="n">
+        <v>260795</v>
+      </c>
+      <c r="I51" t="n">
+        <v>495454.9999977541</v>
+      </c>
+      <c r="J51" t="n">
+        <v>142.1476056666667</v>
+      </c>
+      <c r="K51" t="n">
+        <v>426.442817</v>
+      </c>
+      <c r="L51" t="n">
+        <v>426.357063</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-3b.dat</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>234660</v>
+      </c>
+      <c r="C52" t="n">
+        <v>141578.9516903905</v>
+      </c>
+      <c r="D52" t="n">
+        <v>376238.9516903905</v>
+      </c>
+      <c r="E52" t="n">
+        <v>19.91970433333333</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.06074866666666667</v>
+      </c>
+      <c r="G52" t="n">
+        <v>56.245498</v>
+      </c>
+      <c r="H52" t="n">
+        <v>151462.9913190202</v>
+      </c>
+      <c r="I52" t="n">
+        <v>386122.9913190202</v>
+      </c>
+      <c r="J52" t="n">
+        <v>66.51905066666667</v>
+      </c>
+      <c r="K52" t="n">
+        <v>199.557152</v>
+      </c>
+      <c r="L52" t="n">
+        <v>199.478323</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-1.dat</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>15385</v>
+      </c>
+      <c r="C53" t="n">
+        <v>80972.53234696048</v>
+      </c>
+      <c r="D53" t="n">
+        <v>96357.53234696048</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3.521786</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.067022</v>
+      </c>
+      <c r="G53" t="n">
+        <v>6.518663</v>
+      </c>
+      <c r="H53" t="n">
+        <v>80015.0000000405</v>
+      </c>
+      <c r="I53" t="n">
+        <v>95400.0000000405</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5447675</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1.089535</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.081344</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-1b.dat</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>15385</v>
+      </c>
+      <c r="C54" t="n">
+        <v>53439.71844345405</v>
+      </c>
+      <c r="D54" t="n">
+        <v>68824.71844345405</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2.656068</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.065246</v>
+      </c>
+      <c r="G54" t="n">
+        <v>4.82054</v>
+      </c>
+      <c r="H54" t="n">
+        <v>57502.0000002422</v>
+      </c>
+      <c r="I54" t="n">
+        <v>72887.0000002422</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.718427</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1.436854</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.426861</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-2.dat</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>29319</v>
+      </c>
+      <c r="C55" t="n">
+        <v>76023.89879105485</v>
+      </c>
+      <c r="D55" t="n">
+        <v>105342.8987910548</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3.824340333333333</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.04344633333333334</v>
+      </c>
+      <c r="G55" t="n">
+        <v>10.703402</v>
+      </c>
+      <c r="H55" t="n">
+        <v>61808</v>
+      </c>
+      <c r="I55" t="n">
+        <v>91127</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.1294546666666667</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.388364</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.381322</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-2BIS.dat</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>19785</v>
+      </c>
+      <c r="C56" t="n">
+        <v>82034.88112450049</v>
+      </c>
+      <c r="D56" t="n">
+        <v>101819.8811245005</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4.598558</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.04267199999999999</v>
+      </c>
+      <c r="G56" t="n">
+        <v>13.195762</v>
+      </c>
+      <c r="H56" t="n">
+        <v>66511.00000004248</v>
+      </c>
+      <c r="I56" t="n">
+        <v>86296.00000004248</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.08351366666666667</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.250541</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.243697</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-2b.dat</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>29319</v>
+      </c>
+      <c r="C57" t="n">
+        <v>51694.04113804763</v>
+      </c>
+      <c r="D57" t="n">
+        <v>81013.04113804763</v>
+      </c>
+      <c r="E57" t="n">
+        <v>6.534493333333334</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.041599</v>
+      </c>
+      <c r="G57" t="n">
+        <v>18.831411</v>
+      </c>
+      <c r="H57" t="n">
+        <v>50835.00000003765</v>
+      </c>
+      <c r="I57" t="n">
+        <v>80154.00000003765</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.1054793333333333</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.316438</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.309401</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-2bBIS.dat</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>19242</v>
+      </c>
+      <c r="C58" t="n">
+        <v>51451.02044248403</v>
+      </c>
+      <c r="D58" t="n">
+        <v>70693.02044248403</v>
+      </c>
+      <c r="E58" t="n">
+        <v>2.206871</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.04244233333333333</v>
+      </c>
+      <c r="G58" t="n">
+        <v>5.871396</v>
+      </c>
+      <c r="H58" t="n">
+        <v>46547.00000032039</v>
+      </c>
+      <c r="I58" t="n">
+        <v>65789.00000032039</v>
+      </c>
+      <c r="J58" t="n">
+        <v>25.53556766666667</v>
+      </c>
+      <c r="K58" t="n">
+        <v>76.606703</v>
+      </c>
+      <c r="L58" t="n">
+        <v>76.591212</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-3.dat</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>18961</v>
+      </c>
+      <c r="C59" t="n">
+        <v>75730.43048470319</v>
+      </c>
+      <c r="D59" t="n">
+        <v>94691.43048470319</v>
+      </c>
+      <c r="E59" t="n">
+        <v>9.730489499999999</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0665345</v>
+      </c>
+      <c r="G59" t="n">
+        <v>18.902519</v>
+      </c>
+      <c r="H59" t="n">
+        <v>73443</v>
+      </c>
+      <c r="I59" t="n">
+        <v>92404</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.3347675</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.669535</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.660918</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord50-5-3b.dat</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>15787</v>
+      </c>
+      <c r="C60" t="n">
+        <v>49209.0513935398</v>
+      </c>
+      <c r="D60" t="n">
+        <v>64996.0513935398</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.964517</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.064469</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.406106</v>
+      </c>
+      <c r="H60" t="n">
+        <v>54796.00000060031</v>
+      </c>
+      <c r="I60" t="n">
+        <v>70583.00000060031</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.313477</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.626954</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.6189640000000001</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-1.dat</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>154942.0000000054</v>
+      </c>
+      <c r="C61" t="n">
+        <v>141617.1159554735</v>
+      </c>
+      <c r="D61" t="n">
+        <v>296559.1159554789</v>
+      </c>
+      <c r="E61" t="n">
+        <v>36.447556</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.063601</v>
+      </c>
+      <c r="G61" t="n">
+        <v>98.047057</v>
+      </c>
+      <c r="H61" t="n">
+        <v>147758.99999892</v>
+      </c>
+      <c r="I61" t="n">
+        <v>302700.9999989254</v>
+      </c>
+      <c r="J61" t="n">
+        <v>4.441763333333333</v>
+      </c>
+      <c r="K61" t="n">
+        <v>13.32529</v>
+      </c>
+      <c r="L61" t="n">
+        <v>13.304822</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-1b.dat</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>154942</v>
+      </c>
+      <c r="C62" t="n">
+        <v>89891.23972091982</v>
+      </c>
+      <c r="D62" t="n">
+        <v>244833.2397209198</v>
+      </c>
+      <c r="E62" t="n">
+        <v>39.471614</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.05902433333333334</v>
+      </c>
+      <c r="G62" t="n">
+        <v>107.217649</v>
+      </c>
+      <c r="H62" t="n">
+        <v>102445.9966483365</v>
+      </c>
+      <c r="I62" t="n">
+        <v>257387.9966483365</v>
+      </c>
+      <c r="J62" t="n">
+        <v>6.490532333333333</v>
+      </c>
+      <c r="K62" t="n">
+        <v>19.471597</v>
+      </c>
+      <c r="L62" t="n">
+        <v>19.453066</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-2.dat</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>145956</v>
+      </c>
+      <c r="C63" t="n">
+        <v>117649.8237816729</v>
+      </c>
+      <c r="D63" t="n">
+        <v>263605.8237816729</v>
+      </c>
+      <c r="E63" t="n">
+        <v>5.311491333333334</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.04722066666666667</v>
+      </c>
+      <c r="G63" t="n">
+        <v>13.112159</v>
+      </c>
+      <c r="H63" t="n">
+        <v>102556.999999896</v>
+      </c>
+      <c r="I63" t="n">
+        <v>248512.999999896</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1.493114666666667</v>
+      </c>
+      <c r="K63" t="n">
+        <v>4.479344</v>
+      </c>
+      <c r="L63" t="n">
+        <v>4.458660999999999</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-2b.dat</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>141051.0072422104</v>
+      </c>
+      <c r="C64" t="n">
+        <v>79846.83598467031</v>
+      </c>
+      <c r="D64" t="n">
+        <v>220897.8432268807</v>
+      </c>
+      <c r="E64" t="n">
+        <v>8.657818666666666</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.04705966666666667</v>
+      </c>
+      <c r="G64" t="n">
+        <v>23.104919</v>
+      </c>
+      <c r="H64" t="n">
+        <v>81096.99999947177</v>
+      </c>
+      <c r="I64" t="n">
+        <v>222148.0072416821</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.7185696666666667</v>
+      </c>
+      <c r="K64" t="n">
+        <v>2.155709</v>
+      </c>
+      <c r="L64" t="n">
+        <v>2.137397</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-3.dat</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>136123</v>
+      </c>
+      <c r="C65" t="n">
+        <v>128552.0784533934</v>
+      </c>
+      <c r="D65" t="n">
+        <v>264675.0784533934</v>
+      </c>
+      <c r="E65" t="n">
+        <v>10.66851966666667</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.057303</v>
+      </c>
+      <c r="G65" t="n">
+        <v>19.367158</v>
+      </c>
+      <c r="H65" t="n">
+        <v>122776.9999607977</v>
+      </c>
+      <c r="I65" t="n">
+        <v>258899.9999607977</v>
+      </c>
+      <c r="J65" t="n">
+        <v>7.725042999999999</v>
+      </c>
+      <c r="K65" t="n">
+        <v>23.175129</v>
+      </c>
+      <c r="L65" t="n">
+        <v>23.153607</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-10-3b.dat</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>136123</v>
+      </c>
+      <c r="C66" t="n">
+        <v>81171.82487671108</v>
+      </c>
+      <c r="D66" t="n">
+        <v>217294.8248767111</v>
+      </c>
+      <c r="E66" t="n">
+        <v>10.180435</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.05743433333333334</v>
+      </c>
+      <c r="G66" t="n">
+        <v>17.867084</v>
+      </c>
+      <c r="H66" t="n">
+        <v>76425.00000000017</v>
+      </c>
+      <c r="I66" t="n">
+        <v>212548.0000000002</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1.429826333333333</v>
+      </c>
+      <c r="K66" t="n">
+        <v>4.289479</v>
+      </c>
+      <c r="L66" t="n">
+        <v>4.270968</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-1.dat</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>132890</v>
+      </c>
+      <c r="C67" t="n">
+        <v>158257.9344677532</v>
+      </c>
+      <c r="D67" t="n">
+        <v>291147.9344677532</v>
+      </c>
+      <c r="E67" t="n">
+        <v>2.587902</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.046459</v>
+      </c>
+      <c r="G67" t="n">
+        <v>6.394914</v>
+      </c>
+      <c r="H67" t="n">
+        <v>153757</v>
+      </c>
+      <c r="I67" t="n">
+        <v>286647</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1.135662666666667</v>
+      </c>
+      <c r="K67" t="n">
+        <v>3.406988</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3.385779</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-1b.dat</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>132889.9999999952</v>
+      </c>
+      <c r="C68" t="n">
+        <v>91493.01345875698</v>
+      </c>
+      <c r="D68" t="n">
+        <v>224383.0134587521</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3.278284</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.04690133333333333</v>
+      </c>
+      <c r="G68" t="n">
+        <v>8.467636000000001</v>
+      </c>
+      <c r="H68" t="n">
+        <v>95308.00022499231</v>
+      </c>
+      <c r="I68" t="n">
+        <v>228198.0002249875</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2.685492</v>
+      </c>
+      <c r="K68" t="n">
+        <v>8.056476</v>
+      </c>
+      <c r="L68" t="n">
+        <v>8.03581</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-2.dat</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>102246</v>
+      </c>
+      <c r="C69" t="n">
+        <v>105196.9096539584</v>
+      </c>
+      <c r="D69" t="n">
+        <v>207442.9096539584</v>
+      </c>
+      <c r="E69" t="n">
+        <v>2.7750595</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.0523815</v>
+      </c>
+      <c r="G69" t="n">
+        <v>4.844671</v>
+      </c>
+      <c r="H69" t="n">
+        <v>94299.00000000001</v>
+      </c>
+      <c r="I69" t="n">
+        <v>196545</v>
+      </c>
+      <c r="J69" t="n">
+        <v>2.3072765</v>
+      </c>
+      <c r="K69" t="n">
+        <v>4.614553</v>
+      </c>
+      <c r="L69" t="n">
+        <v>4.588061</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-2b.dat</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>102245.9999999841</v>
+      </c>
+      <c r="C70" t="n">
+        <v>66361.35747883299</v>
+      </c>
+      <c r="D70" t="n">
+        <v>168607.3574788171</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3.127929</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.05199</v>
+      </c>
+      <c r="G70" t="n">
+        <v>5.550509</v>
+      </c>
+      <c r="H70" t="n">
+        <v>63557.00341204883</v>
+      </c>
+      <c r="I70" t="n">
+        <v>165803.0034120329</v>
+      </c>
+      <c r="J70" t="n">
+        <v>113.0448475</v>
+      </c>
+      <c r="K70" t="n">
+        <v>226.089695</v>
+      </c>
+      <c r="L70" t="n">
+        <v>226.063517</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-3.dat</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>88287</v>
+      </c>
+      <c r="C71" t="n">
+        <v>121435.0825676529</v>
+      </c>
+      <c r="D71" t="n">
+        <v>209722.0825676529</v>
+      </c>
+      <c r="E71" t="n">
+        <v>5.856176</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.052743</v>
+      </c>
+      <c r="G71" t="n">
+        <v>10.747062</v>
+      </c>
+      <c r="H71" t="n">
+        <v>116567.9999971409</v>
+      </c>
+      <c r="I71" t="n">
+        <v>204854.9999971409</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.846615</v>
+      </c>
+      <c r="K71" t="n">
+        <v>5.69323</v>
+      </c>
+      <c r="L71" t="n">
+        <v>5.66639</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord100-5-3b.dat</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>88287.00000000262</v>
+      </c>
+      <c r="C72" t="n">
+        <v>71699.25467753105</v>
+      </c>
+      <c r="D72" t="n">
+        <v>159986.2546775337</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1.6563765</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.051773</v>
+      </c>
+      <c r="G72" t="n">
+        <v>2.406237</v>
+      </c>
+      <c r="H72" t="n">
+        <v>67389.00000126309</v>
+      </c>
+      <c r="I72" t="n">
+        <v>155676.0000012657</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.202097</v>
+      </c>
+      <c r="K72" t="n">
+        <v>2.404194</v>
+      </c>
+      <c r="L72" t="n">
+        <v>2.377608</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord20-5-1.dat</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>25549</v>
+      </c>
+      <c r="C73" t="n">
+        <v>42316.24599992947</v>
+      </c>
+      <c r="D73" t="n">
+        <v>67865.24599992947</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1.093026</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.03790266666666667</v>
+      </c>
+      <c r="G73" t="n">
+        <v>2.853213</v>
+      </c>
+      <c r="H73" t="n">
+        <v>31644.00000002697</v>
+      </c>
+      <c r="I73" t="n">
+        <v>57193.00000002697</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.03893066666666667</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.116792</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.114308</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord20-5-1b.dat</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>15496.99999999996</v>
+      </c>
+      <c r="C74" t="n">
+        <v>29788.8388832785</v>
+      </c>
+      <c r="D74" t="n">
+        <v>45285.83888327845</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1.7508595</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="G74" t="n">
+        <v>3.133813</v>
+      </c>
+      <c r="H74" t="n">
+        <v>32256.00000008826</v>
+      </c>
+      <c r="I74" t="n">
+        <v>47753.00000008822</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.0299315</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.059863</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.0575</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord20-5-2.dat</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>24196</v>
+      </c>
+      <c r="C75" t="n">
+        <v>40243.83992072947</v>
+      </c>
+      <c r="D75" t="n">
+        <v>64439.83992072947</v>
+      </c>
+      <c r="E75" t="n">
+        <v>2.638727666666667</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.03682966666666667</v>
+      </c>
+      <c r="G75" t="n">
+        <v>7.452189</v>
+      </c>
+      <c r="H75" t="n">
+        <v>25505.00000000412</v>
+      </c>
+      <c r="I75" t="n">
+        <v>49701.00000000412</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.02494933333333333</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.074848</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.07239900000000001</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord20-5-2b.dat</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>13911</v>
+      </c>
+      <c r="C76" t="n">
+        <v>28983.27788020028</v>
+      </c>
+      <c r="D76" t="n">
+        <v>42894.27788020027</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.4142845</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.0379685</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.440812</v>
+      </c>
+      <c r="H76" t="n">
+        <v>29646.000000125</v>
+      </c>
+      <c r="I76" t="n">
+        <v>43557.000000125</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.0302885</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.060577</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.058241</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>/storage/group/azs7266/default/paper_repos/NEOS-LRP-Codes/data/coord200-10-1.dat</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>253840</v>
+      </c>
+      <c r="C77" t="n">
+        <v>237172.2519921298</v>
+      </c>
+      <c r="D77" t="n">
+        <v>491012.2519921298</v>
+      </c>
+      <c r="E77" t="n">
+        <v>10.28643133333333</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.05616533333333334</v>
+      </c>
+      <c r="G77" t="n">
+        <v>26.235278</v>
+      </c>
+      <c r="H77" t="n">
+        <v>229030.9969649523</v>
+      </c>
+      <c r="I77" t="n">
+        <v>482870.9969649523</v>
+      </c>
+      <c r="J77" t="n">
+        <v>34.48288933333333</v>
+      </c>
+      <c r="K77" t="n">
+        <v>103.448668</v>
+      </c>
+      <c r="L77" t="n">
+        <v>103.379704</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/results/neos_results.xlsx
+++ b/results/neos_results.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3478,6 +3478,86 @@
         <v>103.379704</v>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>/Users/waquarkaleem/NEOS-LRP-Codes-1/data/coord100-5-1.dat</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>132890</v>
+      </c>
+      <c r="C78" t="n">
+        <v>158257.9343285563</v>
+      </c>
+      <c r="D78" t="n">
+        <v>291147.9343285563</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4.513415666666667</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.06266033333333333</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.644519</v>
+      </c>
+      <c r="H78" t="n">
+        <v>153757</v>
+      </c>
+      <c r="I78" t="n">
+        <v>286647</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.392994</v>
+      </c>
+      <c r="K78" t="n">
+        <v>4.178982</v>
+      </c>
+      <c r="L78" t="n">
+        <v>4.14119</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>/Users/waquarkaleem/NEOS-LRP-Codes-1/data/coord100-5-1b.dat</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>132890</v>
+      </c>
+      <c r="C79" t="n">
+        <v>91493.01262549779</v>
+      </c>
+      <c r="D79" t="n">
+        <v>224383.0126254978</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.690508</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.03496766666666667</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.744026</v>
+      </c>
+      <c r="H79" t="n">
+        <v>95307.99861876165</v>
+      </c>
+      <c r="I79" t="n">
+        <v>228197.9986187617</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2.103994333333333</v>
+      </c>
+      <c r="K79" t="n">
+        <v>6.311983</v>
+      </c>
+      <c r="L79" t="n">
+        <v>6.262792</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/neos_results.xlsx
+++ b/results/neos_results.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3558,6 +3558,46 @@
         <v>6.262792</v>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>/Users/waquarkaleem/NEOS-LRP-Codes-1/prodhon_dataset/coord100-5-1.dat</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>132890</v>
+      </c>
+      <c r="C80" t="n">
+        <v>160276.2011747958</v>
+      </c>
+      <c r="D80" t="n">
+        <v>293166.2011747958</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.6295433333333333</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.05504633333333334</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.345505</v>
+      </c>
+      <c r="H80" t="n">
+        <v>150759.9999998822</v>
+      </c>
+      <c r="I80" t="n">
+        <v>283649.9999998822</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.8793983333333334</v>
+      </c>
+      <c r="K80" t="n">
+        <v>2.638195</v>
+      </c>
+      <c r="L80" t="n">
+        <v>2.584249</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
